--- a/picture/pic4/all_dl_dh.xlsx
+++ b/picture/pic4/all_dl_dh.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E3D07-6C4A-44B4-9D12-7CC4CCD1FECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD444E8-AA87-40E5-A47E-DBFC9F2AF01F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,7 +342,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,7 +468,7 @@
         <v>95.435833894644503</v>
       </c>
       <c r="G8">
-        <v>97.183189982576394</v>
+        <v>91.183189982576394</v>
       </c>
       <c r="H8">
         <v>97.219539688301495</v>
